--- a/EDUBot Parts List.xlsx
+++ b/EDUBot Parts List.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\_Work\Educational Robot\github\UND_EDUBot\Build\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\_Work\Educational Robot\github\UND_EDUBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263A3163-089C-4D39-9B0B-8D579728AC7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3879077A-7D90-485B-B970-2622FA6E79FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{57B26DBE-87C8-467A-851A-2402CD0AE304}"/>
   </bookViews>
@@ -282,10 +282,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -625,8 +625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36A7E78A-3633-4C78-8BC5-6642EBDD644B}">
   <dimension ref="B4:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -663,7 +663,7 @@
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
@@ -687,7 +687,7 @@
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="6"/>
+      <c r="B6" s="7"/>
       <c r="C6" t="s">
         <v>9</v>
       </c>
@@ -730,7 +730,7 @@
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C9" t="s">
@@ -754,7 +754,7 @@
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="6"/>
+      <c r="B10" s="7"/>
       <c r="C10" t="s">
         <v>11</v>
       </c>
@@ -776,7 +776,7 @@
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="6"/>
+      <c r="B11" s="7"/>
       <c r="C11" t="s">
         <v>12</v>
       </c>
@@ -798,7 +798,7 @@
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="6"/>
+      <c r="B12" s="7"/>
       <c r="C12" t="s">
         <v>38</v>
       </c>
@@ -820,7 +820,7 @@
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="6"/>
+      <c r="B13" s="7"/>
       <c r="C13" t="s">
         <v>41</v>
       </c>
@@ -842,7 +842,7 @@
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="6"/>
+      <c r="B14" s="7"/>
       <c r="C14" t="s">
         <v>40</v>
       </c>
@@ -864,7 +864,7 @@
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="6"/>
+      <c r="B15" s="7"/>
       <c r="C15" t="s">
         <v>13</v>
       </c>
@@ -886,7 +886,7 @@
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="6"/>
+      <c r="B16" s="7"/>
       <c r="C16" t="s">
         <v>21</v>
       </c>
@@ -908,7 +908,7 @@
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="6"/>
+      <c r="B17" s="7"/>
       <c r="C17" t="s">
         <v>14</v>
       </c>
@@ -930,7 +930,7 @@
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="6"/>
+      <c r="B18" s="7"/>
       <c r="C18" t="s">
         <v>15</v>
       </c>
@@ -952,7 +952,7 @@
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="6"/>
+      <c r="B19" s="7"/>
       <c r="C19" t="s">
         <v>22</v>
       </c>
@@ -974,7 +974,7 @@
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="6" t="s">
         <v>60</v>
       </c>
       <c r="C20" t="s">
@@ -1022,7 +1022,7 @@
       <c r="H22" s="3"/>
     </row>
     <row r="23" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="7" t="s">
         <v>57</v>
       </c>
       <c r="C23" t="s">
@@ -1046,7 +1046,7 @@
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="6"/>
+      <c r="B24" s="7"/>
       <c r="C24" t="s">
         <v>17</v>
       </c>
@@ -1058,7 +1058,7 @@
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="6"/>
+      <c r="B25" s="7"/>
       <c r="C25" t="s">
         <v>18</v>
       </c>
@@ -1067,7 +1067,7 @@
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B26" s="6"/>
+      <c r="B26" s="7"/>
       <c r="C26" t="s">
         <v>19</v>
       </c>
@@ -1076,7 +1076,7 @@
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B27" s="6"/>
+      <c r="B27" s="7"/>
       <c r="C27" t="s">
         <v>20</v>
       </c>
@@ -1085,7 +1085,7 @@
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B28" s="6"/>
+      <c r="B28" s="7"/>
       <c r="C28" t="s">
         <v>26</v>
       </c>
@@ -1104,7 +1104,7 @@
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B29" s="6"/>
+      <c r="B29" s="7"/>
       <c r="C29" t="s">
         <v>27</v>
       </c>
@@ -1123,7 +1123,7 @@
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B30" s="6"/>
+      <c r="B30" s="7"/>
       <c r="C30" t="s">
         <v>28</v>
       </c>
@@ -1132,7 +1132,7 @@
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B31" s="6"/>
+      <c r="B31" s="7"/>
       <c r="C31" t="s">
         <v>25</v>
       </c>
@@ -1151,10 +1151,10 @@
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B32" s="6"/>
+      <c r="B32" s="7"/>
     </row>
     <row r="34" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C34" t="s">
@@ -1178,7 +1178,7 @@
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B35" s="6"/>
+      <c r="B35" s="7"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="2"/>

--- a/EDUBot Parts List.xlsx
+++ b/EDUBot Parts List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\_Work\Educational Robot\github\UND_EDUBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3879077A-7D90-485B-B970-2622FA6E79FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57CA7F0B-FD3A-4654-8402-FDBCAA007770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{57B26DBE-87C8-467A-851A-2402CD0AE304}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
   <si>
     <t>Subsystem</t>
   </si>
@@ -86,21 +86,6 @@
     <t>3S UPS</t>
   </si>
   <si>
-    <t>M4x6</t>
-  </si>
-  <si>
-    <t>M4x10</t>
-  </si>
-  <si>
-    <t>M2x6</t>
-  </si>
-  <si>
-    <t>M2.5x6</t>
-  </si>
-  <si>
-    <t>M3x6</t>
-  </si>
-  <si>
     <t>Gpio standoff</t>
   </si>
   <si>
@@ -219,6 +204,27 @@
   </si>
   <si>
     <t>*6 for price of 3</t>
+  </si>
+  <si>
+    <t>M2.5x8</t>
+  </si>
+  <si>
+    <t>M2x8</t>
+  </si>
+  <si>
+    <t>M4x8</t>
+  </si>
+  <si>
+    <t>M4x12</t>
+  </si>
+  <si>
+    <t>M2x16</t>
+  </si>
+  <si>
+    <t>M2 Nuts</t>
+  </si>
+  <si>
+    <t>Optional</t>
   </si>
 </sst>
 </file>
@@ -623,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36A7E78A-3633-4C78-8BC5-6642EBDD644B}">
-  <dimension ref="B4:H38"/>
+  <dimension ref="B4:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -635,7 +641,7 @@
     <col min="2" max="2" width="15.21875" customWidth="1"/>
     <col min="3" max="3" width="20.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -656,7 +662,7 @@
         <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H4" t="s">
         <v>4</v>
@@ -683,7 +689,7 @@
         <v>25.98</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
@@ -705,12 +711,12 @@
         <v>12</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
@@ -726,7 +732,7 @@
         <v>4.5</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
@@ -750,7 +756,7 @@
         <v>12.99</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
@@ -772,7 +778,7 @@
         <v>10</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
@@ -794,13 +800,13 @@
         <v>80</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="7"/>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
@@ -816,13 +822,13 @@
         <v>5</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="7"/>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
@@ -838,13 +844,13 @@
         <v>25</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="7"/>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
@@ -860,7 +866,7 @@
         <v>6.99</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
@@ -882,13 +888,13 @@
         <v>10.99</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="7"/>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
@@ -904,7 +910,7 @@
         <v>6.99</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
@@ -926,7 +932,7 @@
         <v>99</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
@@ -948,13 +954,13 @@
         <v>32</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="7"/>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D19" s="1">
         <v>1</v>
@@ -970,15 +976,15 @@
         <v>6.99</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="6" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D20" s="1">
         <v>3</v>
@@ -994,12 +1000,12 @@
         <v>20</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D21" s="1">
         <v>1</v>
@@ -1015,7 +1021,7 @@
         <v>16.989999999999998</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
@@ -1023,10 +1029,10 @@
     </row>
     <row r="23" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C23" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="D23" s="1">
         <v>4</v>
@@ -1042,162 +1048,177 @@
         <v>24.98</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="7"/>
       <c r="C24" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="D24" s="1">
         <v>4</v>
       </c>
       <c r="H24" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="7"/>
       <c r="C25" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="D25" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="7"/>
       <c r="C26" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="D26" s="1">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="7"/>
       <c r="C27" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="D27" s="1">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="7"/>
       <c r="C28" t="s">
-        <v>26</v>
-      </c>
-      <c r="E28" s="1">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>15.99</v>
-      </c>
-      <c r="G28">
-        <f>F28*E28</f>
-        <v>15.99</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>51</v>
+        <v>56</v>
+      </c>
+      <c r="D28" s="1">
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="7"/>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
       </c>
       <c r="F29">
-        <v>10.98</v>
+        <v>15.99</v>
       </c>
       <c r="G29">
         <f>F29*E29</f>
-        <v>10.98</v>
-      </c>
-      <c r="H29" t="s">
-        <v>52</v>
+        <v>15.99</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="7"/>
       <c r="C30" t="s">
-        <v>28</v>
-      </c>
-      <c r="D30" s="1">
-        <v>1</v>
+        <v>22</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>10.98</v>
+      </c>
+      <c r="G30">
+        <f>F30*E30</f>
+        <v>10.98</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="7"/>
       <c r="C31" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31" s="1">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>2.99</v>
-      </c>
-      <c r="G31">
-        <f>F31*E31</f>
-        <v>2.99</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>56</v>
+        <v>23</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="7"/>
-    </row>
-    <row r="34" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C34" t="s">
-        <v>24</v>
-      </c>
-      <c r="D34" s="1">
-        <v>1</v>
-      </c>
-      <c r="E34" s="1">
-        <v>1</v>
-      </c>
-      <c r="F34">
+      <c r="C32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>2.99</v>
+      </c>
+      <c r="G32">
+        <f>F32*E32</f>
+        <v>2.99</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B33" s="7"/>
+    </row>
+    <row r="35" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1</v>
+      </c>
+      <c r="F35">
         <v>34</v>
       </c>
-      <c r="G34">
-        <f>F34*E34</f>
+      <c r="G35">
+        <f>F35*E35</f>
         <v>34</v>
       </c>
-      <c r="H34" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B35" s="7"/>
+      <c r="H35" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B36" s="2"/>
+      <c r="B36" s="7"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F37" t="s">
-        <v>43</v>
-      </c>
-      <c r="G37">
-        <f>SUM(G5:G36)</f>
+      <c r="B37" s="2"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F38" t="s">
+        <v>38</v>
+      </c>
+      <c r="G38">
+        <f>SUM(G5:G37)</f>
         <v>464.36000000000013</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F38" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="G38">
-        <f>G34+SUM(G5:G21)</f>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F39" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G39">
+        <f>G35+SUM(G5:G21)</f>
         <v>409.42000000000007</v>
       </c>
     </row>
@@ -1205,8 +1226,8 @@
   <mergeCells count="4">
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B9:B19"/>
-    <mergeCell ref="B23:B32"/>
-    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B23:B33"/>
+    <mergeCell ref="B35:B36"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H9" r:id="rId1" display="https://www.pololu.com/product/2999" xr:uid="{0C2187FA-66F2-4412-9F40-DF89FF3E02F3}"/>
@@ -1220,10 +1241,10 @@
     <hyperlink ref="H18" r:id="rId9" display="https://www.amazon.com/waveshare-Uninterruptible-UPS-Module-3S/dp/B0BQC2WNR8/ref=sr_1_5?crid=1A7RXXPK99O0F&amp;dib=eyJ2IjoiMSJ9.mfbUtJb22YOKwWA-bMWeAUKYPhlxWq7zQcTLx0VsGTnSSSp-CjnJxrHdqYRn9kuPPeOewcw9qg5t1uAthPijAR-AhZ6T7S4d21CLB5K2iqHR2IPkgT3cIFbVJwgJJc2m7HzQVDyYZ3y8RUzGynGbh-ed58pAYHpVNheG_7dJzWQS-BVpuAmQ7bLK71jQrfPWbUjns2efbUcjlxaLEdKk3WI_iPlyPtJf8K3uqU1v0Jw.sRrdiTGmELms73PpmhVHDOxGX-boqfHIGquRNAQTSZU&amp;dib_tag=se&amp;keywords=rpi+5+ups&amp;qid=1749223529&amp;sprefix=rpi+5+up%2Caps%2C235&amp;sr=8-5" xr:uid="{DB2C1021-88ED-4544-A495-7D7F3EC35089}"/>
     <hyperlink ref="H21" r:id="rId10" display="https://www.amazon.com/SanDisk-Extreme-microSDXC-Memory-Adapter/dp/B09X7BK27V/ref=sr_1_4?dib=eyJ2IjoiMSJ9.wURXrQCPkQt61NVEdL51J1XbrBSseMUfvekSTf0zf2bcMcE2EYlInDgZEhVmfUp9kkptQbJUkPh3IX1j6hcL0UovOxAQ-EA2WSECAlivPaZcfDD_8qmctBvlioyFpKvPnBk5aEVFIdOcBYvdfNlkOsUvd1vi5LbfIQpB22aYO-X1POsstSvfNLWSEKjJxszgSl86eyBlGA-sdmAHKmMYDGGJpbUKVDXEA77DTGqWGe0.IbgI7GWXlpEleOuYFKHcShfmXzBmJq_rJvTGF0Ou9ts&amp;dib_tag=se&amp;keywords=128gb+micro+sd&amp;qid=1755787808&amp;sr=8-4" xr:uid="{69770C57-24C2-42C7-A9FC-75A34863F9A3}"/>
     <hyperlink ref="H19" r:id="rId11" display="https://www.amazon.com/Android-Compatible-Smartphones-Charging-Stations/dp/B095JZSHXQ/ref=sr_1_8?dib=eyJ2IjoiMSJ9.Tky7kUDoLps0ajzZpsX0AwA0zi_VUvT0L3EuH0qvOES3uavt-RP4psB7PrWIXC7RdO1igC1ifu2jVko9fEMVtoF3KWTFF9T3TGB_A4O7Fq2tm_31nPffEsYkICb12wAPE-6_iHM94JMTqrWNXBjoc6T1wyTPtktsITZ0ne1JNd_JQ6rCphKsKzTC48Va0SXj3HFFNPVpWAZBuKVsjHt_hDhrdzHKdZ-9QQVf3uca8Wc.BODIsPVUzSHbvIIj9pqYZEZG8GAyn-b9gtVVr6-QW-o&amp;dib_tag=se&amp;keywords=short%2Bmicro%2Busb%2Bcable%2Bdata&amp;qid=1755787954&amp;sr=8-8&amp;th=1" xr:uid="{C39345EE-8B2C-46C3-AEF8-D45A4666099B}"/>
-    <hyperlink ref="H28" r:id="rId12" display="https://www.amazon.com/TUOFENG-Wire-Stranded-Flexible-Silicone-Different/dp/B07G2BWBX8/ref=sr_1_1_sspa?dib=eyJ2IjoiMSJ9.NkKlEJIL-_yJElsf3-eupYomVmuNHOWHrD_Um3qY1VeWjmwlSOnHalZl3fXAwIyD30B9o19raOKnD57jgM5VNc_0PQy87zsHs0nr7Fg8M2YgjtHZ4LaR5WpPSac1Ph48vpqtAxc5ZGZZ0FxPfidK0Jpe-Y2EI5sj8LPagL-F_a5josKBP7U0eHWmYRhU9IobnJli1qqcx2ugT6y08PQPPnvK-_N618Opjof89aT71eGlFr5bM-S6-kk54_Np6ieNzJKzvV3Bly_MuU479FOmttAjd8q9ADlrkYU66CkeGsk.a5BbtnP_JWQ9W0ASk-wskrgxJ_996EUrOAMN3f5zxGk&amp;dib_tag=se&amp;keywords=24+gauge+wire&amp;qid=1755788088&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;psc=1" xr:uid="{2C7640C4-2B53-47CA-B828-CF2F80A37CBD}"/>
+    <hyperlink ref="H29" r:id="rId12" display="https://www.amazon.com/TUOFENG-Wire-Stranded-Flexible-Silicone-Different/dp/B07G2BWBX8/ref=sr_1_1_sspa?dib=eyJ2IjoiMSJ9.NkKlEJIL-_yJElsf3-eupYomVmuNHOWHrD_Um3qY1VeWjmwlSOnHalZl3fXAwIyD30B9o19raOKnD57jgM5VNc_0PQy87zsHs0nr7Fg8M2YgjtHZ4LaR5WpPSac1Ph48vpqtAxc5ZGZZ0FxPfidK0Jpe-Y2EI5sj8LPagL-F_a5josKBP7U0eHWmYRhU9IobnJli1qqcx2ugT6y08PQPPnvK-_N618Opjof89aT71eGlFr5bM-S6-kk54_Np6ieNzJKzvV3Bly_MuU479FOmttAjd8q9ADlrkYU66CkeGsk.a5BbtnP_JWQ9W0ASk-wskrgxJ_996EUrOAMN3f5zxGk&amp;dib_tag=se&amp;keywords=24+gauge+wire&amp;qid=1755788088&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;psc=1" xr:uid="{2C7640C4-2B53-47CA-B828-CF2F80A37CBD}"/>
     <hyperlink ref="H23" r:id="rId13" display="https://www.amazon.com/HELIFOUNER-Stainless-Hardware-Assortment-Wrenches/dp/B09WJ14JWF/ref=pd_sbs_d_sccl_2_7/144-1665836-2805945?pd_rd_w=Yx2YZ&amp;content-id=amzn1.sym.2cd14f8d-eb5c-4042-b934-4a05eafd2874&amp;pf_rd_p=2cd14f8d-eb5c-4042-b934-4a05eafd2874&amp;pf_rd_r=AHF5Y7ZWD393N6R3Y4BQ&amp;pd_rd_wg=2WVrM&amp;pd_rd_r=fd700e81-e609-426b-93b1-8af23913d954&amp;pd_rd_i=B09WJ14JWF&amp;th=1" xr:uid="{EBF5254C-3B39-443A-9792-69FAA814D774}"/>
-    <hyperlink ref="H34" r:id="rId14" display="https://www.amazon.com/GL-iNet-GL-AR300M16-Ext-Pre-Installed-Performance-Programmable/dp/B07794JRC5/ref=sr_1_4?dib=eyJ2IjoiMSJ9.0Buz37CXKhSxZPu_pWNrFhgFF71_mC2L0CRaWHDrfCFP8kaKPDcp46FK1z6womebfdTZYwPtWHgzc2jxcIn9ij_U-HWeXpo2C9yUQW5FDghewLMlsyTKQSSJL5TAcPA4pUXkv_wA2Oa3vXgaGEHcuVQV6XlRAXHyL2zz8EI_Sd7x6c0nponsFOjEle3DGe-eL-TVgIZIzTNJAnlPAhmBxRwGoCZRGKe9GJR9eCkdfBo.57lBif8K5RqJxM-bRoreLN7qxGaReodKL5oWm4eF4ic&amp;dib_tag=se&amp;keywords=gli.net+router&amp;qid=1755788564&amp;sr=8-4" xr:uid="{869A89C8-F82E-46D5-8F30-3DEDB9257A58}"/>
-    <hyperlink ref="H31" r:id="rId15" display="https://www.amazon.com/Small-Tensile-Strength-Tantti-Supply/dp/B0C2KGK2HR/ref=sr_1_1_sspa?dib=eyJ2IjoiMSJ9.vkykqYzxj8DfoTBzCHbh4g0IJum_W5YdfOMaLLUsfdmJEHr4cEN1BcdrbU7FN2CQB33Gvjrt4kbeYr3J8NsrX04ZaGluJ7DIATu3frlo__7ZfTvmC1FHR2RFGp0JxNYux0Y6EGf4re1nVYeM6V-xiSpLGs9tH_cc7wjyiW1Z7IS_UkGQtqyfSduwFzQr31vONpqbBvt1zGTdDYOGkqfITEhVuWwt82CbDbTmrYqbooM.oFz1oqiZPATWsCJuXax1VA1rN4FqxAbofB4KF339RCQ&amp;dib_tag=se&amp;keywords=4%2Binch%2Bzip%2Bties&amp;qid=1755788943&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1" xr:uid="{CCE82045-0C95-4A00-84E6-E25CCCE68520}"/>
+    <hyperlink ref="H35" r:id="rId14" display="https://www.amazon.com/GL-iNet-GL-AR300M16-Ext-Pre-Installed-Performance-Programmable/dp/B07794JRC5/ref=sr_1_4?dib=eyJ2IjoiMSJ9.0Buz37CXKhSxZPu_pWNrFhgFF71_mC2L0CRaWHDrfCFP8kaKPDcp46FK1z6womebfdTZYwPtWHgzc2jxcIn9ij_U-HWeXpo2C9yUQW5FDghewLMlsyTKQSSJL5TAcPA4pUXkv_wA2Oa3vXgaGEHcuVQV6XlRAXHyL2zz8EI_Sd7x6c0nponsFOjEle3DGe-eL-TVgIZIzTNJAnlPAhmBxRwGoCZRGKe9GJR9eCkdfBo.57lBif8K5RqJxM-bRoreLN7qxGaReodKL5oWm4eF4ic&amp;dib_tag=se&amp;keywords=gli.net+router&amp;qid=1755788564&amp;sr=8-4" xr:uid="{869A89C8-F82E-46D5-8F30-3DEDB9257A58}"/>
+    <hyperlink ref="H32" r:id="rId15" display="https://www.amazon.com/Small-Tensile-Strength-Tantti-Supply/dp/B0C2KGK2HR/ref=sr_1_1_sspa?dib=eyJ2IjoiMSJ9.vkykqYzxj8DfoTBzCHbh4g0IJum_W5YdfOMaLLUsfdmJEHr4cEN1BcdrbU7FN2CQB33Gvjrt4kbeYr3J8NsrX04ZaGluJ7DIATu3frlo__7ZfTvmC1FHR2RFGp0JxNYux0Y6EGf4re1nVYeM6V-xiSpLGs9tH_cc7wjyiW1Z7IS_UkGQtqyfSduwFzQr31vONpqbBvt1zGTdDYOGkqfITEhVuWwt82CbDbTmrYqbooM.oFz1oqiZPATWsCJuXax1VA1rN4FqxAbofB4KF339RCQ&amp;dib_tag=se&amp;keywords=4%2Binch%2Bzip%2Bties&amp;qid=1755788943&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1" xr:uid="{CCE82045-0C95-4A00-84E6-E25CCCE68520}"/>
     <hyperlink ref="H20" r:id="rId16" display="https://www.amazon.com/Tokeyla-Rechargeable-Batteries-Flashlights-Headlamp/dp/B0DRCQHZRH/ref=sr_1_11?crid=3SATODGM16DMT&amp;dib=eyJ2IjoiMSJ9.kreFD9YlNDC1m6MspMcC-GxpuugjXvZh0qLy_mzJ8R1bQqwvoJLZVvqDT-3obTgT02kuA81h1oOKBAM3tmpK2jWQMQHRri8mZUAyknUtlvqbK9LVI4HcbpqvT1CJ98mHvmYd5HA70VxlNsLwTFddU5KqaTQByy23NMC-DgrY6qJbVgQ42FnTisbGLsewy_IaX1lIoPzmkVyMt24v5Mij2Y9BnoC1rFsH4ELQtHaM9uw-wgkHttOqxhjNsBA6x3ygNxeGgMreSlchc5gqDdsnJfCW_vfCCj0IL_HerCqkB3g.ZGQnxH73sJw965MXzMaTxkXojz8y_fZY6VceKuNYMKs&amp;dib_tag=se&amp;keywords=18650+battery&amp;qid=1755807546&amp;sprefix=18650+battery%2Caps%2C146&amp;sr=8-11" xr:uid="{9707AF7D-2338-46F0-B041-D007CDC0A9F9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
